--- a/output/ejecucion_1/results/base0/base0_ci_xgb_st.xlsx
+++ b/output/ejecucion_1/results/base0/base0_ci_xgb_st.xlsx
@@ -22,154 +22,154 @@
     <t>score</t>
   </si>
   <si>
-    <t>_tejgfun_f5ct06viv</t>
-  </si>
-  <si>
-    <t>_tejgge_r08ct05pobso</t>
+    <t>tejgfun_f5r18ct05opseg</t>
   </si>
   <si>
     <t>_tejgfun_f5r18ct05pgrco</t>
   </si>
   <si>
-    <t>_tejgft_rdetpc</t>
-  </si>
-  <si>
-    <t>devppimtotfun_f5r07turi</t>
+    <t>_tejgrb_fonc</t>
+  </si>
+  <si>
+    <t>tejgct_r18gstcppc</t>
+  </si>
+  <si>
+    <t>_tejgct_r18gstcp</t>
+  </si>
+  <si>
+    <t>empinc_7</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct06amb</t>
+  </si>
+  <si>
+    <t>tejgfun_f5r07ct06cydep</t>
+  </si>
+  <si>
+    <t>mod_102</t>
   </si>
   <si>
     <t>_tdvgge_r00ct06acanf</t>
   </si>
   <si>
-    <t>per_010</t>
-  </si>
-  <si>
-    <t>_devppimgge_r07ct05dotra</t>
-  </si>
-  <si>
-    <t>_tdvgfun_f5ct06salud</t>
-  </si>
-  <si>
-    <t>_piagtotfun_f5r18amb</t>
-  </si>
-  <si>
-    <t>pimgfun_f1ct05salud</t>
-  </si>
-  <si>
-    <t>tejgge_r00ct05biser</t>
-  </si>
-  <si>
-    <t>tejgtotfun_f2cydep</t>
-  </si>
-  <si>
-    <t>tdvgtotfun_f1pgrcopc</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2cydeppc</t>
-  </si>
-  <si>
-    <t>tejgrb_fonc</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct05prots</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagfun_f1ct05pgrco</t>
-  </si>
-  <si>
-    <t>_piagtotfun_f5r07san</t>
-  </si>
-  <si>
-    <t>dfgpimpiafun_f2ct06viv</t>
-  </si>
-  <si>
-    <t>dfgpimpiatotfun_f2san</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct06vivpc</t>
-  </si>
-  <si>
-    <t>compu_muni_1</t>
-  </si>
-  <si>
-    <t>piagtotfun_f5r18comepc</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct06amb</t>
-  </si>
-  <si>
-    <t>_devppimct_r13gstcr</t>
+    <t>dfgpimpiatotfun_f4cydeppc</t>
+  </si>
+  <si>
+    <t>tejgtotfun_f5r07pgrco</t>
+  </si>
+  <si>
+    <t>tejgkft_rdetpc</t>
+  </si>
+  <si>
+    <t>tdvgtotfun_f3trans</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5r18ct06protspc</t>
+  </si>
+  <si>
+    <t>mod_109</t>
+  </si>
+  <si>
+    <t>_tejgct_r18srdeu</t>
+  </si>
+  <si>
+    <t>_dfgpimpiatotfun_f5r18protspc</t>
+  </si>
+  <si>
+    <t>piagfun_f5ct06amb</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r18ct05trans</t>
+  </si>
+  <si>
+    <t>pimgfun_f2ct06ambpc</t>
+  </si>
+  <si>
+    <t>_tdvgfun_f2ct05agro</t>
+  </si>
+  <si>
+    <t>mod_182</t>
+  </si>
+  <si>
+    <t>_pimgfun_f4ct05pgrco</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5r18ct06come</t>
+  </si>
+  <si>
+    <t>_pimgfun_f1ct06pgrco</t>
+  </si>
+  <si>
+    <t>devppimge_r00ct05pobso</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f5ct05comu</t>
+  </si>
+  <si>
+    <t>tdvgfun_f3ct06trans</t>
+  </si>
+  <si>
+    <t>empinc_6</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagge_r08ct05dotra</t>
+  </si>
+  <si>
+    <t>tdvgfun_f5r18ct06opsegpc</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5r08ct05cydep</t>
+  </si>
+  <si>
+    <t>_devppimtotfun_f5r07agro</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f2ct06agro</t>
+  </si>
+  <si>
+    <t>tdvgfun_f5r18ct05salud</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5r07ct05salud</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagtotfun_f5r07amb</t>
+  </si>
+  <si>
+    <t>_pimgfun_f1ct06opsegpc</t>
   </si>
   <si>
     <t>_dfgdevpiagge_r00ct06acanf</t>
   </si>
   <si>
-    <t>devppimfun_f5r07ct05cydep</t>
-  </si>
-  <si>
-    <t>_tdvgge_r07ct05dotra</t>
-  </si>
-  <si>
-    <t>_devppimfun_f5r07ct05trans</t>
-  </si>
-  <si>
-    <t>pimgfun_f2ct06pgrco</t>
-  </si>
-  <si>
-    <t>_tdvgfun_f4ct05pgrco</t>
-  </si>
-  <si>
-    <t>_tdvgge_r00ct05biser</t>
-  </si>
-  <si>
-    <t>dfgdevpiagtotfun_f4cydep</t>
-  </si>
-  <si>
-    <t>mod_109</t>
-  </si>
-  <si>
-    <t>pimgfun_f5r18ct05come</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagfun_f5r18ct05ambpc</t>
-  </si>
-  <si>
-    <t>_tdvgct_r00gstcp</t>
-  </si>
-  <si>
-    <t>devppimgge_r13ct06acanf</t>
-  </si>
-  <si>
-    <t>_devppimfun_f5r07ct05edu</t>
+    <t>_tdvgfun_f5r18ct06salud</t>
+  </si>
+  <si>
+    <t>_tejgge_r07ct05otgst</t>
+  </si>
+  <si>
+    <t>devppimfun_f5r18ct05opseg</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagtotfun_f5r18come</t>
+  </si>
+  <si>
+    <t>mod_4</t>
+  </si>
+  <si>
+    <t>_piagge_r00ct05biser</t>
   </si>
   <si>
     <t>pimgtotfun_f3trans</t>
   </si>
   <si>
-    <t>_dfgdevpiagfun_f5r07ct06energ</t>
-  </si>
-  <si>
-    <t>piagfun_f5ct06amb</t>
-  </si>
-  <si>
-    <t>pimgfun_f5r07ct06vivpc</t>
-  </si>
-  <si>
-    <t>_tejgge_r09ct05dotra</t>
-  </si>
-  <si>
-    <t>_pimgfun_f3ct06pgrcopc</t>
-  </si>
-  <si>
-    <t>_tdvgfun_f1ct06pgrco</t>
-  </si>
-  <si>
-    <t>devppimtotfun_f4cydep</t>
-  </si>
-  <si>
-    <t>_pimgge_r07ct05otgstpc</t>
-  </si>
-  <si>
-    <t>_piagtotfun_f5opseg</t>
+    <t>dfgdevpiagge_r18ct05pobsopc</t>
+  </si>
+  <si>
+    <t>pimgfun_f5ct06salud</t>
+  </si>
+  <si>
+    <t>dfgdevpiagge_r19ct06acanf</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.03135034069418907</v>
+        <v>0.02799911797046661</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.02354545891284943</v>
+        <v>0.02771610766649246</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.022645004093647</v>
+        <v>0.01769818179309368</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.0152159733697772</v>
+        <v>0.01537503208965063</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.01322902739048004</v>
+        <v>0.01515484414994717</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.01243043225258589</v>
+        <v>0.01500201225280762</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.0121228639036417</v>
+        <v>0.01299677137285471</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.01170274801552296</v>
+        <v>0.01278187986463308</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.01166217122226954</v>
+        <v>0.01246858015656471</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.01123807765543461</v>
+        <v>0.01242814306169748</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.01111467555165291</v>
+        <v>0.01222918089479208</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.01095094904303551</v>
+        <v>0.01205877494066954</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.01068854983896017</v>
+        <v>0.01155161764472723</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.009919364005327225</v>
+        <v>0.01052089594304562</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.009875639341771603</v>
+        <v>0.01010480616241693</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.009849109686911106</v>
+        <v>0.009916328825056553</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.009835266508162022</v>
+        <v>0.009405471384525299</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.009703136049211025</v>
+        <v>0.009262409992516041</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.009450275450944901</v>
+        <v>0.008948596194386482</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.009385393001139164</v>
+        <v>0.008722798898816109</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.009149257093667984</v>
+        <v>0.007454126607626677</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.009048770181834698</v>
+        <v>0.007143577095121145</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.009008129127323627</v>
+        <v>0.006962460931390524</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.007821345701813698</v>
+        <v>0.006907122209668159</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.007666302844882011</v>
+        <v>0.006850221194326878</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.00740674277767539</v>
+        <v>0.006835393141955137</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.007276337593793869</v>
+        <v>0.00675062695518136</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.006804474163800478</v>
+        <v>0.006496856454759836</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.006668575573712587</v>
+        <v>0.005971729755401611</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.006588953547179699</v>
+        <v>0.005852175410836935</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.006520064547657967</v>
+        <v>0.005629813764244318</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.006329696625471115</v>
+        <v>0.005543048959225416</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.006146593485027552</v>
+        <v>0.005527456756681204</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.006128791719675064</v>
+        <v>0.005328195635229349</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.006089739035815001</v>
+        <v>0.005244643893092871</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.005779699888080359</v>
+        <v>0.005174067802727222</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.005681718699634075</v>
+        <v>0.004865709692239761</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.00563568202778697</v>
+        <v>0.004756978712975979</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.005470286123454571</v>
+        <v>0.004740702919661999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.005283817648887634</v>
+        <v>0.004681949969381094</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.005198449827730656</v>
+        <v>0.004651708528399467</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.005037560593336821</v>
+        <v>0.004513933788985014</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.00502917030826211</v>
+        <v>0.004489094018936157</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.004977111238986254</v>
+        <v>0.004390055779367685</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.004975948482751846</v>
+        <v>0.004293451551347971</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.004855588544160128</v>
+        <v>0.004281779751181602</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.004852036945521832</v>
+        <v>0.004237735643982887</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.004681239370256662</v>
+        <v>0.004138126038014889</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.004545422270894051</v>
+        <v>0.004136834293603897</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.004538622684776783</v>
+        <v>0.00413637375459075</v>
       </c>
     </row>
   </sheetData>
